--- a/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/EpisodeInfo/T_EpisodeInfoTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/EpisodeInfo/T_EpisodeInfoTable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -36,23 +36,41 @@
     <t>LevelMode</t>
   </si>
   <si>
+    <t>LevelKinds</t>
+  </si>
+  <si>
     <t>RewardKinds</t>
+  </si>
+  <si>
+    <t>TutorialKinds</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>StageMode</t>
+    <t>Sample</t>
   </si>
   <si>
-    <t>ChapterMode</t>
+    <t>샘플 레벨 정보</t>
+  </si>
+  <si>
+    <t>StageKinds</t>
+  </si>
+  <si>
+    <t>샘플 스테이지 정보</t>
+  </si>
+  <si>
+    <t>ChapterKinds</t>
+  </si>
+  <si>
+    <t>샘플 챕터 정보</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -62,6 +80,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -309,7 +331,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="9" width="14.43"/>
+    <col customWidth="1" min="1" max="11" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -337,11 +359,51 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>
@@ -1355,8 +1417,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="7" width="14.43"/>
-    <col customWidth="1" min="8" max="8" width="15.43"/>
+    <col customWidth="1" min="1" max="8" width="14.43"/>
+    <col customWidth="1" min="9" max="9" width="15.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -1375,17 +1437,48 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>
@@ -2399,8 +2492,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="15.86"/>
+    <col customWidth="1" min="1" max="8" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -2416,17 +2508,45 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>

--- a/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/EpisodeInfo/T_EpisodeInfoTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/EpisodeInfo/T_EpisodeInfoTable.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -24,13 +33,10 @@
     <t>ChapterID</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>NumTargets</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Replace</t>
+    <t>UnlockNumTargets</t>
   </si>
   <si>
     <t>LevelMode</t>
@@ -331,7 +337,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="14.43"/>
+    <col customWidth="1" min="1" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.29"/>
+    <col customWidth="1" min="9" max="13" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -353,55 +361,67 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>0.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>0.0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>0.0</v>
       </c>
       <c r="G2" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="I2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="3">
         <v>-1.0</v>
       </c>
       <c r="J2" s="2">
         <v>-1.0</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
+      <c r="K2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
@@ -1417,8 +1437,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="14.43"/>
-    <col customWidth="1" min="9" max="9" width="15.43"/>
+    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col customWidth="1" min="7" max="7" width="17.29"/>
+    <col customWidth="1" min="8" max="10" width="14.43"/>
+    <col customWidth="1" min="11" max="11" width="15.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -1426,57 +1448,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>0.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
-      <c r="F2" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-1.0</v>
+      <c r="F2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.0</v>
       </c>
       <c r="H2" s="2">
         <v>-1.0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
+      <c r="I2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
@@ -2492,7 +2526,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="14.43"/>
+    <col customWidth="1" min="1" max="5" width="14.43"/>
+    <col customWidth="1" min="6" max="6" width="17.29"/>
+    <col customWidth="1" min="7" max="10" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -2500,51 +2536,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
       </c>
-      <c r="E2" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1.0</v>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.0</v>
       </c>
       <c r="G2" s="2">
         <v>-1.0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+      <c r="H2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
